--- a/датасет в excel.xlsx
+++ b/датасет в excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stadl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stadl\Desktop\my.lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{248A8E45-3755-4082-BD8B-E71D4193AC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBE9E3E-17FA-4C86-808E-5C42569D67FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="датасет" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>кровать</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>журнальный стол</t>
+  </si>
+  <si>
+    <t>10042</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,8 +588,8 @@
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6">
-        <v>10043</v>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>

--- a/датасет в excel.xlsx
+++ b/датасет в excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stadl\Desktop\my.lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBE9E3E-17FA-4C86-808E-5C42569D67FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A7DF18-A946-4263-A859-8C8351DDC2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="датасет" sheetId="1" r:id="rId1"/>
@@ -27,33 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
-    <t>кровать</t>
-  </si>
-  <si>
-    <t>наименование</t>
-  </si>
-  <si>
-    <t>артикул</t>
-  </si>
-  <si>
-    <t>цена</t>
-  </si>
-  <si>
-    <t>ссылка</t>
-  </si>
-  <si>
-    <t>место</t>
-  </si>
-  <si>
-    <t>ширина</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/odnospalnaya-krovat-mars-120h200-sm-315268487/?asb=1EsEi%252BvcMtqRjsoklWGA%252Bt9cYrO9tx6poqQnBoz1iUQ%253D&amp;asb2=UqkSM3umQGlLwNx_S2xd2wTAeQZT5X6Th_NI0A_oy-qKW6r4ItNDyVD-zoyxo6dA&amp;keywords=%D0%BA%D1%80%D0%BE%D0%B2%D0%B0%D1%82%D1%8C&amp;sh=pwr9D5zY#section-description--offset-140</t>
   </si>
   <si>
-    <t>шкаф</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/shkaf-raspashnoy-2-h-stv-2-shimo-90h52h201-6-sm-247882455/?asb=ioi%252BTYibsefkC56dSMWLCs5Hhr%252BY4Uy4fIY7S%252B%252FwJ0Y%253D&amp;asb2=uab_ZrFM3ZCYBV6GQSbRjV1LJS3wCEaVy42PuC4UkUA&amp;keywords=%D1%88%D0%BA%D0%B0%D1%84&amp;sh=eB69kR1o</t>
   </si>
   <si>
@@ -66,41 +42,65 @@
     <t>https://www.ozon.ru/product/tumba-prikrovatnaya-mebelnaya-set-alesya-valensiya-tb-011-2-yashch-50h45h43-sm-323265664/?advert=VMIlTX2rB9CTByLI-6e6mtTIVVh07P6WszbNc2t0cOfjcdLeTHnb4wA2-lMZRJJ-rQGnhEr5zP8X5DEuO3MFgAil47gwFsrcsQCalkzQQPFSliHsGQaErkIpVt7khPGT6f-knBeuRVzut6Epdk3DOx4yYVuCwWvnVTr0yQaNXhCn9w&amp;hs=1&amp;sh=-7Cg5NqX</t>
   </si>
   <si>
-    <t>тумбочка</t>
-  </si>
-  <si>
-    <t>диван</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/divan-divan-krovat-versal-mehanizm-vykatnoy-190h190h76-sm-310129131/?advert=4fl6CCc4J5aAtMkbF5MqNnGoFsfibbi6vckND25xC1rp2qHvYGjxImclNEV9QACc8VMKJ9HL1qbN1BDIoVT2DYRuKrEZL3J9WujT6vr2-A8wpkSCXr_sQEugbEGFpw7gN7DFsEn8sYH4vHDimy7PILzaLlHdd1twhsTL&amp;hs=1&amp;sh=EBpcYe1X</t>
   </si>
   <si>
     <t>гостиная</t>
   </si>
   <si>
-    <t>длина/высота</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/shkaf-knizhnyy-biblioteka-53-160h32h220-sm-mebelayn-335457747/?asb=%252FrV40%252FQmqgnOlv8h4k9q1nEqHTBC6qZGPxb%252BvPIWXx8%253D&amp;asb2=OSLNThnAC956PK45ipz7F2jARndGzO7Rq_1zmil5PQ4&amp;keywords=%D1%88%D0%BA%D0%B0%D1%84+%D0%B4%D0%BB%D1%8F+%D0%BA%D0%BD%D0%B8%D0%B3&amp;sh=Dv_gzzeO</t>
   </si>
   <si>
-    <t>книжный шкаф</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/zhurnalnyy-stol-prima-62h51-6h50-sm-178461930/?asb=SbcCALUPL0eB3cSoUa0man%252B4Yrs6HLs64KXIwT2p2K4%253D&amp;asb2=4JJz3R94tR5LOPMmpIQkNqojVc7qYvGFjiJoURPAUfiVXstSRZDwLMWilJmi61i_&amp;keywords=%D0%B6%D1%83%D1%80%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B9+%D1%81%D1%82%D0%BE%D0%BB%D0%B8%D0%BA&amp;sh=lopcseKt</t>
   </si>
   <si>
-    <t>журнальный стол</t>
-  </si>
-  <si>
     <t>10042</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>Длина/высота</t>
+  </si>
+  <si>
+    <t>Ширина</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>Место</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Кровать</t>
+  </si>
+  <si>
+    <t>Шкаф</t>
+  </si>
+  <si>
+    <t>Тумбочка</t>
+  </si>
+  <si>
+    <t>Диван</t>
+  </si>
+  <si>
+    <t>Книжный шкаф</t>
+  </si>
+  <si>
+    <t>Журнальный стол</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +116,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,18 +165,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -434,7 +463,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,79 +476,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9997</v>
+      </c>
+      <c r="C2" s="3">
+        <v>205</v>
+      </c>
+      <c r="D2" s="3">
+        <v>125</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
-        <v>9997</v>
-      </c>
-      <c r="C2" s="4">
-        <v>205</v>
-      </c>
-      <c r="D2" s="4">
-        <v>125</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
         <v>5940</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
         <v>201</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>90</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
         <v>7940</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
         <v>10000018481</v>
       </c>
       <c r="C4" s="2">
@@ -528,21 +557,21 @@
       <c r="D4" s="1">
         <v>50</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>2565</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
         <v>30432</v>
       </c>
       <c r="C5" s="1">
@@ -551,21 +580,21 @@
       <c r="D5" s="1">
         <v>190</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G5" s="1">
         <v>36900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5">
         <v>1198386</v>
       </c>
       <c r="C6" s="1">
@@ -574,22 +603,22 @@
       <c r="D6" s="1">
         <v>160</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
         <v>30107</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -597,13 +626,13 @@
       <c r="D7" s="1">
         <v>62</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
         <v>1899</v>
       </c>
     </row>
